--- a/reports/Debug-snowbowl-20251217/For The Day (Actual)_Payroll.xlsx
+++ b/reports/Debug-snowbowl-20251217/For The Day (Actual)_Payroll.xlsx
@@ -14,20 +14,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="246">
   <si>
     <t>eecode</t>
   </si>
   <si>
+    <t>C346</t>
+  </si>
+  <si>
+    <t>F058</t>
+  </si>
+  <si>
+    <t>A280</t>
+  </si>
+  <si>
+    <t>A3MF</t>
+  </si>
+  <si>
+    <t>A2BY</t>
+  </si>
+  <si>
+    <t>A3P9</t>
+  </si>
+  <si>
+    <t>G693</t>
+  </si>
+  <si>
+    <t>H632</t>
+  </si>
+  <si>
+    <t>G891</t>
+  </si>
+  <si>
+    <t>H777</t>
+  </si>
+  <si>
+    <t>A0AF</t>
+  </si>
+  <si>
+    <t>A2C3</t>
+  </si>
+  <si>
+    <t>A3MT</t>
+  </si>
+  <si>
+    <t>A3NP</t>
+  </si>
+  <si>
+    <t>A3OD</t>
+  </si>
+  <si>
+    <t>A3OF</t>
+  </si>
+  <si>
+    <t>A3MQ</t>
+  </si>
+  <si>
+    <t>A4BY</t>
+  </si>
+  <si>
+    <t>B925</t>
+  </si>
+  <si>
+    <t>A3MC</t>
+  </si>
+  <si>
+    <t>A0BB</t>
+  </si>
+  <si>
+    <t>F627</t>
+  </si>
+  <si>
     <t>A337</t>
   </si>
   <si>
-    <t>A2BY</t>
+    <t>A2DQ</t>
+  </si>
+  <si>
+    <t>A2C5</t>
+  </si>
+  <si>
+    <t>A2C6</t>
   </si>
   <si>
     <t>G961</t>
   </si>
   <si>
+    <t>A1K3</t>
+  </si>
+  <si>
     <t>E483</t>
   </si>
   <si>
@@ -40,159 +115,84 @@
     <t>A749</t>
   </si>
   <si>
-    <t>A4BY</t>
-  </si>
-  <si>
-    <t>A3MQ</t>
-  </si>
-  <si>
-    <t>A3OF</t>
-  </si>
-  <si>
-    <t>A3OD</t>
-  </si>
-  <si>
-    <t>A3NP</t>
-  </si>
-  <si>
-    <t>A3MT</t>
-  </si>
-  <si>
-    <t>A2C3</t>
-  </si>
-  <si>
-    <t>A0AF</t>
-  </si>
-  <si>
-    <t>C346</t>
-  </si>
-  <si>
-    <t>B925</t>
-  </si>
-  <si>
-    <t>A3MC</t>
-  </si>
-  <si>
-    <t>A0BB</t>
-  </si>
-  <si>
-    <t>A3MF</t>
-  </si>
-  <si>
-    <t>A280</t>
-  </si>
-  <si>
-    <t>F058</t>
-  </si>
-  <si>
-    <t>A2C5</t>
+    <t>H352</t>
   </si>
   <si>
     <t>A2BR</t>
   </si>
   <si>
-    <t>A3P9</t>
-  </si>
-  <si>
-    <t>G693</t>
-  </si>
-  <si>
-    <t>H352</t>
-  </si>
-  <si>
-    <t>A1K3</t>
-  </si>
-  <si>
-    <t>G891</t>
-  </si>
-  <si>
-    <t>H777</t>
-  </si>
-  <si>
-    <t>H632</t>
-  </si>
-  <si>
-    <t>A2C6</t>
-  </si>
-  <si>
-    <t>A2DQ</t>
-  </si>
-  <si>
-    <t>F627</t>
-  </si>
-  <si>
     <t>E657</t>
   </si>
   <si>
     <t>A434</t>
   </si>
   <si>
+    <t>B221</t>
+  </si>
+  <si>
     <t>A3J5</t>
   </si>
   <si>
-    <t>B221</t>
-  </si>
-  <si>
     <t>A3I8</t>
   </si>
   <si>
+    <t>A3IP</t>
+  </si>
+  <si>
+    <t>A3IC</t>
+  </si>
+  <si>
+    <t>A0QH</t>
+  </si>
+  <si>
+    <t>A3LE</t>
+  </si>
+  <si>
+    <t>E530</t>
+  </si>
+  <si>
+    <t>J561</t>
+  </si>
+  <si>
     <t>A3IA</t>
   </si>
   <si>
     <t>A0QK</t>
   </si>
   <si>
-    <t>J561</t>
+    <t>A3J1</t>
+  </si>
+  <si>
+    <t>E568</t>
+  </si>
+  <si>
+    <t>A3IG</t>
   </si>
   <si>
     <t>A3WC</t>
   </si>
   <si>
-    <t>A3IP</t>
-  </si>
-  <si>
-    <t>A3IC</t>
-  </si>
-  <si>
-    <t>A3J1</t>
-  </si>
-  <si>
-    <t>E568</t>
-  </si>
-  <si>
-    <t>E530</t>
-  </si>
-  <si>
-    <t>A3LE</t>
-  </si>
-  <si>
-    <t>A3IG</t>
-  </si>
-  <si>
-    <t>A0QH</t>
+    <t>I806</t>
+  </si>
+  <si>
+    <t>A10D</t>
   </si>
   <si>
     <t>A2YJ</t>
   </si>
   <si>
-    <t>I806</t>
-  </si>
-  <si>
     <t>F703</t>
   </si>
   <si>
-    <t>A10D</t>
+    <t>C349</t>
+  </si>
+  <si>
+    <t>C215</t>
   </si>
   <si>
     <t>I305</t>
   </si>
   <si>
-    <t>C215</t>
-  </si>
-  <si>
-    <t>C349</t>
-  </si>
-  <si>
     <t>B567</t>
   </si>
   <si>
@@ -202,144 +202,147 @@
     <t>A235</t>
   </si>
   <si>
+    <t>G190</t>
+  </si>
+  <si>
     <t>A3HZ</t>
   </si>
   <si>
+    <t>G581</t>
+  </si>
+  <si>
+    <t>C644</t>
+  </si>
+  <si>
+    <t>E893</t>
+  </si>
+  <si>
+    <t>F013</t>
+  </si>
+  <si>
+    <t>G573</t>
+  </si>
+  <si>
+    <t>I588</t>
+  </si>
+  <si>
+    <t>A278</t>
+  </si>
+  <si>
     <t>H425</t>
   </si>
   <si>
+    <t>A400</t>
+  </si>
+  <si>
+    <t>D576</t>
+  </si>
+  <si>
     <t>H115</t>
   </si>
   <si>
-    <t>G573</t>
-  </si>
-  <si>
-    <t>C644</t>
-  </si>
-  <si>
-    <t>G581</t>
-  </si>
-  <si>
-    <t>E893</t>
-  </si>
-  <si>
-    <t>I588</t>
-  </si>
-  <si>
-    <t>A400</t>
-  </si>
-  <si>
-    <t>A278</t>
-  </si>
-  <si>
     <t>J289</t>
   </si>
   <si>
-    <t>F013</t>
-  </si>
-  <si>
-    <t>D576</t>
-  </si>
-  <si>
     <t>D619</t>
   </si>
   <si>
     <t>E660</t>
   </si>
   <si>
-    <t>G190</t>
+    <t>C991</t>
+  </si>
+  <si>
+    <t>A0QI</t>
+  </si>
+  <si>
+    <t>A4FM</t>
+  </si>
+  <si>
+    <t>A3RR</t>
+  </si>
+  <si>
+    <t>A2FB</t>
+  </si>
+  <si>
+    <t>A2FK</t>
+  </si>
+  <si>
+    <t>A0TR</t>
+  </si>
+  <si>
+    <t>A3X5</t>
+  </si>
+  <si>
+    <t>A3OG</t>
+  </si>
+  <si>
+    <t>A3RQ</t>
   </si>
   <si>
     <t>A2CR</t>
   </si>
   <si>
-    <t>A3OG</t>
+    <t>A842</t>
   </si>
   <si>
     <t>F510</t>
   </si>
   <si>
-    <t>A3RR</t>
-  </si>
-  <si>
-    <t>A3RQ</t>
-  </si>
-  <si>
-    <t>A3X5</t>
-  </si>
-  <si>
-    <t>A0TR</t>
-  </si>
-  <si>
-    <t>C991</t>
-  </si>
-  <si>
-    <t>A842</t>
-  </si>
-  <si>
     <t>H173</t>
   </si>
   <si>
-    <t>A0QI</t>
-  </si>
-  <si>
-    <t>A2FK</t>
-  </si>
-  <si>
-    <t>A2FB</t>
+    <t>G605</t>
+  </si>
+  <si>
+    <t>E190</t>
+  </si>
+  <si>
+    <t>A399</t>
   </si>
   <si>
     <t>A1PM</t>
   </si>
   <si>
-    <t>G605</t>
-  </si>
-  <si>
-    <t>A399</t>
-  </si>
-  <si>
-    <t>E190</t>
+    <t>A3RK</t>
+  </si>
+  <si>
+    <t>A44H</t>
+  </si>
+  <si>
+    <t>A3O7</t>
+  </si>
+  <si>
+    <t>H439</t>
   </si>
   <si>
     <t>A2IE</t>
   </si>
   <si>
+    <t>A3IY</t>
+  </si>
+  <si>
+    <t>A2BQ</t>
+  </si>
+  <si>
+    <t>A3O2</t>
+  </si>
+  <si>
+    <t>A3LK</t>
+  </si>
+  <si>
+    <t>A2JE</t>
+  </si>
+  <si>
+    <t>A2I3</t>
+  </si>
+  <si>
     <t>A0IQ</t>
   </si>
   <si>
-    <t>A2BQ</t>
-  </si>
-  <si>
-    <t>A2I3</t>
-  </si>
-  <si>
-    <t>A3O2</t>
-  </si>
-  <si>
-    <t>A3LK</t>
-  </si>
-  <si>
-    <t>A3RK</t>
-  </si>
-  <si>
-    <t>A44H</t>
-  </si>
-  <si>
-    <t>H439</t>
-  </si>
-  <si>
-    <t>A3O7</t>
-  </si>
-  <si>
-    <t>A3IY</t>
-  </si>
-  <si>
     <t>A0RX</t>
   </si>
   <si>
-    <t>A2JE</t>
-  </si>
-  <si>
     <t>F370</t>
   </si>
   <si>
@@ -352,99 +355,99 @@
     <t>A3KO</t>
   </si>
   <si>
+    <t>A0FY</t>
+  </si>
+  <si>
     <t>A3XF</t>
   </si>
   <si>
-    <t>A0FY</t>
-  </si>
-  <si>
     <t>A3KP</t>
   </si>
   <si>
+    <t>A3JL</t>
+  </si>
+  <si>
+    <t>A3YI</t>
+  </si>
+  <si>
+    <t>A0TT</t>
+  </si>
+  <si>
+    <t>A1MH</t>
+  </si>
+  <si>
+    <t>A2KH</t>
+  </si>
+  <si>
+    <t>A2ID</t>
+  </si>
+  <si>
+    <t>A3ZD</t>
+  </si>
+  <si>
+    <t>A3NK</t>
+  </si>
+  <si>
+    <t>A3TU</t>
+  </si>
+  <si>
+    <t>E478</t>
+  </si>
+  <si>
+    <t>A3KG</t>
+  </si>
+  <si>
     <t>A3JQ</t>
   </si>
   <si>
-    <t>A3ZD</t>
-  </si>
-  <si>
-    <t>E478</t>
-  </si>
-  <si>
-    <t>A3NK</t>
-  </si>
-  <si>
-    <t>A3TU</t>
-  </si>
-  <si>
     <t>E794</t>
   </si>
   <si>
-    <t>A2ID</t>
-  </si>
-  <si>
-    <t>A0TT</t>
-  </si>
-  <si>
-    <t>A1MH</t>
-  </si>
-  <si>
-    <t>A3KG</t>
-  </si>
-  <si>
-    <t>A3JL</t>
-  </si>
-  <si>
-    <t>A2KH</t>
-  </si>
-  <si>
-    <t>A3YI</t>
+    <t>A41H</t>
+  </si>
+  <si>
+    <t>A3ZB</t>
+  </si>
+  <si>
+    <t>A3TQ</t>
+  </si>
+  <si>
+    <t>A45O</t>
+  </si>
+  <si>
+    <t>A995</t>
+  </si>
+  <si>
+    <t>A3TV</t>
+  </si>
+  <si>
+    <t>A3J4</t>
+  </si>
+  <si>
+    <t>A0VA</t>
+  </si>
+  <si>
+    <t>A2K2</t>
+  </si>
+  <si>
+    <t>A3UE</t>
+  </si>
+  <si>
+    <t>A41E</t>
+  </si>
+  <si>
+    <t>C926</t>
+  </si>
+  <si>
+    <t>A3Z8</t>
   </si>
   <si>
     <t>A3I6</t>
   </si>
   <si>
-    <t>A0VA</t>
-  </si>
-  <si>
-    <t>A41E</t>
-  </si>
-  <si>
-    <t>A3UE</t>
-  </si>
-  <si>
-    <t>A2K2</t>
-  </si>
-  <si>
-    <t>C926</t>
-  </si>
-  <si>
-    <t>A45O</t>
-  </si>
-  <si>
-    <t>A995</t>
-  </si>
-  <si>
-    <t>A3TQ</t>
-  </si>
-  <si>
-    <t>A41H</t>
-  </si>
-  <si>
     <t>A3ZE</t>
   </si>
   <si>
-    <t>A3Z8</t>
-  </si>
-  <si>
-    <t>A3ZB</t>
-  </si>
-  <si>
-    <t>A3TV</t>
-  </si>
-  <si>
-    <t>A3J4</t>
-  </si>
-  <si>
     <t>A3Z9</t>
   </si>
   <si>
@@ -460,22 +463,28 @@
     <t>I017</t>
   </si>
   <si>
+    <t>A3HE</t>
+  </si>
+  <si>
     <t>A2HX</t>
   </si>
   <si>
     <t>E926</t>
   </si>
   <si>
-    <t>A3HE</t>
+    <t>A2GD</t>
+  </si>
+  <si>
+    <t>A3OP</t>
   </si>
   <si>
     <t>A194</t>
   </si>
   <si>
-    <t>A3OP</t>
-  </si>
-  <si>
-    <t>A2GD</t>
+    <t>G024</t>
+  </si>
+  <si>
+    <t>A3SU</t>
   </si>
   <si>
     <t>A4AF</t>
@@ -484,54 +493,48 @@
     <t>A0BO</t>
   </si>
   <si>
-    <t>A3SU</t>
-  </si>
-  <si>
-    <t>G024</t>
+    <t>A4AL</t>
   </si>
   <si>
     <t>A3SV</t>
   </si>
   <si>
-    <t>A4AL</t>
-  </si>
-  <si>
     <t>A2V1</t>
   </si>
   <si>
     <t>A0J5</t>
   </si>
   <si>
+    <t>A3PS</t>
+  </si>
+  <si>
     <t>A39M</t>
   </si>
   <si>
-    <t>A3PS</t>
+    <t>A0IJ</t>
+  </si>
+  <si>
+    <t>D754</t>
   </si>
   <si>
     <t>A3O6</t>
   </si>
   <si>
-    <t>A0IJ</t>
-  </si>
-  <si>
-    <t>D754</t>
-  </si>
-  <si>
     <t>A3TX</t>
   </si>
   <si>
+    <t>A3TW</t>
+  </si>
+  <si>
     <t>A2PQ</t>
   </si>
   <si>
-    <t>A3TW</t>
+    <t>J280</t>
   </si>
   <si>
     <t>A415</t>
   </si>
   <si>
-    <t>J280</t>
-  </si>
-  <si>
     <t>A393</t>
   </si>
   <si>
@@ -548,6 +551,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
   </si>
   <si>
     <t>HR</t>
@@ -1108,7 +1114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1130,31 +1136,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1162,22 +1168,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>46008.33333333334</v>
+        <v>46008.33283564815</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2">
-        <v>46008.69444444445</v>
+        <v>46008.70064814815</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G2" s="2">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1186,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1194,22 +1200,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>46008.32557870371</v>
+        <v>46008.32430555556</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2">
-        <v>46008.68519675926</v>
+        <v>46008.69541666667</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G3" s="2">
-        <v>18.6</v>
+        <v>20.7</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1218,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1226,22 +1232,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>46008.33234953704</v>
+        <v>46008.32291666666</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D4" s="2">
-        <v>46008.64033564815</v>
+        <v>46008.72232638889</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G4" s="2">
-        <v>19.6</v>
+        <v>23.35</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1250,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1258,19 +1264,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>46008.32550925926</v>
+        <v>46008.32487268518</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D5" s="2">
-        <v>46008.375</v>
+        <v>46008.69575231482</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G5" s="2">
         <v>18.35</v>
@@ -1282,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1290,22 +1296,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>46008.32969907407</v>
+        <v>46008.32557870371</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D6" s="2">
-        <v>46008.69554398148</v>
+        <v>46008.68519675926</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G6" s="2">
-        <v>19.6</v>
+        <v>18.6</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1314,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1322,22 +1328,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>46008.33351851852</v>
+        <v>46008.3244212963</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D7" s="2">
-        <v>46008.70524305556</v>
+        <v>46008.68768518518</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G7" s="2">
-        <v>20.95</v>
+        <v>18.35</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1346,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1354,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>46008.32743055555</v>
+        <v>46008.32986111111</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D8" s="2">
-        <v>46008.68011574074</v>
+        <v>46008.68402777778</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G8" s="2">
         <v>18.35</v>
@@ -1378,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1386,22 +1392,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>46008.33189814815</v>
+        <v>46008.32291666666</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D9" s="2">
-        <v>46008.69172453704</v>
+        <v>46008.72673611111</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G9" s="2">
-        <v>18.35</v>
+        <v>26.8</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1410,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1418,22 +1424,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>46008.32560185185</v>
+        <v>46008.33375</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D10" s="2">
-        <v>46008.68967592593</v>
+        <v>46008.70540509259</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G10" s="2">
-        <v>18.35</v>
+        <v>19.6</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1442,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1450,22 +1456,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>46008.32673611111</v>
+        <v>46008.32438657407</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D11" s="2">
-        <v>46008.68945601852</v>
+        <v>46008.68748842592</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G11" s="2">
-        <v>18.35</v>
+        <v>20.7</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1474,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1482,22 +1488,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>46008.32545138889</v>
+        <v>46008.32313657407</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D12" s="2">
-        <v>46008.69276620371</v>
+        <v>46008.70289351852</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G12" s="2">
-        <v>19.25</v>
+        <v>18.7</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1506,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1514,22 +1520,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>46008.32380787037</v>
+        <v>46008.32291666666</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D13" s="2">
-        <v>46008.63894675926</v>
+        <v>46008.69649305556</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G13" s="2">
-        <v>18.35</v>
+        <v>19.25</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1538,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1549,16 +1555,16 @@
         <v>46008.3265625</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D14" s="2">
         <v>46008.69108796296</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G14" s="2">
         <v>18.35</v>
@@ -1570,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1578,22 +1584,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>46008.32291666666</v>
+        <v>46008.32380787037</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D15" s="2">
-        <v>46008.69649305556</v>
+        <v>46008.63894675926</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G15" s="2">
-        <v>19.25</v>
+        <v>18.35</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1602,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1610,22 +1616,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>46008.32313657407</v>
+        <v>46008.32545138889</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2">
-        <v>46008.70289351852</v>
+        <v>46008.69276620371</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G16" s="2">
-        <v>18.7</v>
+        <v>19.25</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1634,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1642,22 +1648,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>46008.33283564815</v>
+        <v>46008.32673611111</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D17" s="2">
-        <v>46008.70064814815</v>
+        <v>46008.68945601852</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G17" s="2">
-        <v>19.6</v>
+        <v>18.35</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1666,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1674,22 +1680,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>46008.32606481481</v>
+        <v>46008.32560185185</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D18" s="2">
-        <v>46008.70650462963</v>
+        <v>46008.68967592593</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G18" s="2">
-        <v>23.35</v>
+        <v>18.35</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1698,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1706,19 +1712,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>46008.33280092593</v>
+        <v>46008.33189814815</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D19" s="2">
-        <v>46008.68201388889</v>
+        <v>46008.69172453704</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G19" s="2">
         <v>18.35</v>
@@ -1730,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1738,22 +1744,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>46008.33181712963</v>
+        <v>46008.32606481481</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D20" s="2">
-        <v>46008.69259259259</v>
+        <v>46008.70650462963</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G20" s="2">
-        <v>18.7</v>
+        <v>23.35</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1762,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1770,19 +1776,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>46008.32487268518</v>
+        <v>46008.33280092593</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D21" s="2">
-        <v>46008.69575231482</v>
+        <v>46008.68201388889</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G21" s="2">
         <v>18.35</v>
@@ -1794,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1802,22 +1808,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>46008.32291666666</v>
+        <v>46008.33181712963</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D22" s="2">
-        <v>46008.72232638889</v>
+        <v>46008.69259259259</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G22" s="2">
-        <v>23.35</v>
+        <v>18.7</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1826,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1834,22 +1840,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>46008.32430555556</v>
+        <v>46008.32581018518</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D23" s="2">
-        <v>46008.69541666667</v>
+        <v>46008.7016087963</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G23" s="2">
-        <v>20.7</v>
+        <v>18.7</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1858,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1866,19 +1872,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>46008.32614583334</v>
+        <v>46008.33333333334</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D24" s="2">
-        <v>46008.63429398148</v>
+        <v>46008.69444444445</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G24" s="2">
         <v>18.6</v>
@@ -1890,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1898,19 +1904,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>46008.33065972223</v>
+        <v>46008.32618055555</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25" s="2">
-        <v>46008.70504629629</v>
+        <v>46008.64355324074</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G25" s="2">
         <v>18.6</v>
@@ -1922,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1930,22 +1936,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>46008.3244212963</v>
+        <v>46008.32614583334</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D26" s="2">
-        <v>46008.68768518518</v>
+        <v>46008.63429398148</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G26" s="2">
-        <v>18.35</v>
+        <v>18.6</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1954,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1962,22 +1968,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>46008.32986111111</v>
+        <v>46008.32365740741</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D27" s="2">
-        <v>46008.68402777778</v>
+        <v>46008.68619212963</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G27" s="2">
-        <v>18.35</v>
+        <v>18.6</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1986,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1994,22 +2000,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>46008.32340277778</v>
+        <v>46008.33234953704</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D28" s="2">
-        <v>46008.68664351852</v>
+        <v>46008.64033564815</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G28" s="2">
-        <v>18.7</v>
+        <v>19.6</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -2018,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2029,16 +2035,16 @@
         <v>46008.32362268519</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D29" s="2">
         <v>46008.69126157407</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G29" s="2">
         <v>18.6</v>
@@ -2050,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2058,22 +2064,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>46008.33375</v>
+        <v>46008.32550925926</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D30" s="2">
-        <v>46008.70540509259</v>
+        <v>46008.375</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G30" s="2">
-        <v>19.6</v>
+        <v>18.35</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -2082,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2090,22 +2096,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>46008.32438657407</v>
+        <v>46008.32969907407</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D31" s="2">
-        <v>46008.68748842592</v>
+        <v>46008.69554398148</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G31" s="2">
-        <v>20.7</v>
+        <v>19.6</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2114,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2122,22 +2128,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>46008.32291666666</v>
+        <v>46008.33351851852</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D32" s="2">
-        <v>46008.72673611111</v>
+        <v>46008.70524305556</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G32" s="2">
-        <v>26.8</v>
+        <v>20.95</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2146,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2154,22 +2160,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>46008.32365740741</v>
+        <v>46008.32743055555</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D33" s="2">
-        <v>46008.68619212963</v>
+        <v>46008.68011574074</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G33" s="2">
-        <v>18.6</v>
+        <v>18.35</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2178,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2186,22 +2192,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>46008.32618055555</v>
+        <v>46008.32340277778</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D34" s="2">
-        <v>46008.64355324074</v>
+        <v>46008.68664351852</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G34" s="2">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2210,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2218,22 +2224,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>46008.32581018518</v>
+        <v>46008.33065972223</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D35" s="2">
-        <v>46008.7016087963</v>
+        <v>46008.70504629629</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G35" s="2">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2242,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2253,16 +2259,16 @@
         <v>46008.28884259259</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D36" s="2">
         <v>46008.72241898148</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G36" s="2">
         <v>45.68</v>
@@ -2274,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2285,16 +2291,16 @@
         <v>46008.29103009259</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D37" s="2">
         <v>46008.72443287037</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G37" s="2">
         <v>23.35</v>
@@ -2306,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2314,22 +2320,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>46008.28938657408</v>
+        <v>46008.29186342593</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D38" s="2">
-        <v>46008.7019212963</v>
+        <v>46008.70943287037</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G38" s="2">
-        <v>20.2</v>
+        <v>27</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2338,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2346,22 +2352,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>46008.29186342593</v>
+        <v>46008.28938657408</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D39" s="2">
-        <v>46008.70943287037</v>
+        <v>46008.7019212963</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G39" s="2">
-        <v>27</v>
+        <v>20.2</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2370,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2381,12 +2387,12 @@
         <v>46008.29003472222</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G40" s="2">
         <v>22.4</v>
@@ -2398,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2406,22 +2412,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>46008.10144675926</v>
+        <v>46008.06795138889</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D41" s="2">
-        <v>46008.49847222222</v>
+        <v>46008.51491898148</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G41" s="2">
-        <v>20.2</v>
+        <v>23</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2430,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2438,22 +2444,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>46008.49791666667</v>
+        <v>46008.49631944444</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D42" s="2">
-        <v>46009.00070601852</v>
+        <v>46008.83351851852</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G42" s="2">
-        <v>23</v>
+        <v>20.2</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2462,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2470,22 +2476,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>46008.49782407407</v>
+        <v>46008.51004629629</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D43" s="2">
-        <v>46009.00129629629</v>
+        <v>46008.83659722222</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G43" s="2">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2494,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2502,19 +2508,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>46008.12863425926</v>
+        <v>46008.99462962963</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="2">
-        <v>46008.50048611111</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G44" s="2">
         <v>20.2</v>
@@ -2526,7 +2528,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2534,22 +2536,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>46008.06795138889</v>
+        <v>46008.07349537037</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D45" s="2">
-        <v>46008.51491898148</v>
+        <v>46008.50157407407</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G45" s="2">
-        <v>23</v>
+        <v>20.2</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2558,27 +2560,23 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>46008.4984837963</v>
+        <v>46008.99108796296</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="2">
-        <v>46008.49856481481</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G46" s="2">
         <v>20.2</v>
@@ -2590,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2598,22 +2596,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>46008.49631944444</v>
+        <v>46008.49782407407</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D47" s="2">
-        <v>46008.83351851852</v>
+        <v>46009.00129629629</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G47" s="2">
-        <v>20.2</v>
+        <v>22.4</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2622,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2630,19 +2628,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>46008.65560185185</v>
+        <v>46008.4984837963</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D48" s="2">
-        <v>46009.00068287037</v>
+        <v>46008.49856481481</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G48" s="2">
         <v>20.2</v>
@@ -2654,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2662,22 +2660,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>46008.29240740741</v>
+        <v>46008.49791666667</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D49" s="2">
-        <v>46008.72971064815</v>
+        <v>46009.00070601852</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G49" s="2">
-        <v>30.75</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2686,23 +2684,27 @@
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" s="2">
-        <v>46008.99108796296</v>
+        <v>46008.10144675926</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="D50" s="2">
+        <v>46008.49847222222</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="F50" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G50" s="2">
         <v>20.2</v>
@@ -2714,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2722,19 +2724,19 @@
         <v>48</v>
       </c>
       <c r="B51" s="2">
-        <v>46008.07349537037</v>
+        <v>46008.65560185185</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D51" s="2">
-        <v>46008.50157407407</v>
+        <v>46009.00068287037</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G51" s="2">
         <v>20.2</v>
@@ -2746,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2754,18 +2756,22 @@
         <v>49</v>
       </c>
       <c r="B52" s="2">
-        <v>46008.99462962963</v>
+        <v>46008.29240740741</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="D52" s="2">
+        <v>46008.72971064815</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="F52" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G52" s="2">
-        <v>20.2</v>
+        <v>30.75</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2774,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2785,16 +2791,16 @@
         <v>46008.00262731482</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D53" s="2">
         <v>46008.43054398148</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G53" s="2">
         <v>20.2</v>
@@ -2806,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2814,22 +2820,22 @@
         <v>51</v>
       </c>
       <c r="B54" s="2">
-        <v>46008.51004629629</v>
+        <v>46008.12863425926</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D54" s="2">
-        <v>46008.83659722222</v>
+        <v>46008.50048611111</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G54" s="2">
-        <v>23</v>
+        <v>20.2</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2838,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2846,22 +2852,22 @@
         <v>52</v>
       </c>
       <c r="B55" s="2">
-        <v>46008.3234837963</v>
+        <v>46008.35998842592</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D55" s="2">
-        <v>46008.73959490741</v>
+        <v>46008.42685185185</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G55" s="2">
-        <v>17.85</v>
+        <v>24</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2870,27 +2876,27 @@
         <v>0</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B56" s="2">
         <v>46008.6916550926</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D56" s="2">
         <v>46009.0703125</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G56" s="2">
         <v>24</v>
@@ -2902,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2910,22 +2916,22 @@
         <v>53</v>
       </c>
       <c r="B57" s="2">
-        <v>46008.35998842592</v>
+        <v>46008.31847222222</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D57" s="2">
-        <v>46008.42685185185</v>
+        <v>46008.73983796296</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G57" s="2">
-        <v>24</v>
+        <v>18.6</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2934,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2942,18 +2948,22 @@
         <v>54</v>
       </c>
       <c r="B58" s="2">
-        <v>46008.30304398148</v>
+        <v>46008.3234837963</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="D58" s="2">
+        <v>46008.73959490741</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="F58" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G58" s="2">
-        <v>24</v>
+        <v>17.85</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2962,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2970,22 +2980,18 @@
         <v>55</v>
       </c>
       <c r="B59" s="2">
-        <v>46008.31847222222</v>
+        <v>46008.30304398148</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D59" s="2">
-        <v>46008.73983796296</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G59" s="2">
-        <v>18.6</v>
+        <v>24</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2994,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3002,18 +3008,22 @@
         <v>56</v>
       </c>
       <c r="B60" s="2">
-        <v>46008.08167824074</v>
+        <v>46008.69114583333</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="D60" s="2">
+        <v>46009.08342592593</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="F60" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G60" s="2">
-        <v>20.7</v>
+        <v>29.25</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3022,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3033,16 +3043,16 @@
         <v>46008.06891203704</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="2">
         <v>46008.39761574074</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G61" s="2">
         <v>22.4</v>
@@ -3054,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3062,22 +3072,18 @@
         <v>58</v>
       </c>
       <c r="B62" s="2">
-        <v>46008.69114583333</v>
+        <v>46008.08167824074</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D62" s="2">
-        <v>46009.08342592593</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G62" s="2">
-        <v>29.25</v>
+        <v>20.7</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3086,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3097,16 +3103,16 @@
         <v>46008.2818287037</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D63" s="2">
         <v>46008.50841435185</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G63" s="2">
         <v>35.5</v>
@@ -3118,30 +3124,30 @@
         <v>0</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="2">
-        <v>46008.7293287037</v>
+        <v>46008.52883101852</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D64" s="2">
-        <v>46008.72991898148</v>
+        <v>46008.7253587963</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G64" s="2">
-        <v>40.5</v>
+        <v>35.5</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3150,30 +3156,30 @@
         <v>0</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B65" s="2">
-        <v>46008.52883101852</v>
+        <v>46008.7293287037</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D65" s="2">
-        <v>46008.7253587963</v>
+        <v>46008.72991898148</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G65" s="2">
-        <v>35.5</v>
+        <v>40.5</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3182,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3193,16 +3199,16 @@
         <v>46008.31883101852</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D66" s="2">
         <v>46008.72695601852</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G66" s="2">
         <v>22.4</v>
@@ -3214,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3222,22 +3228,22 @@
         <v>62</v>
       </c>
       <c r="B67" s="2">
-        <v>46008.32776620371</v>
+        <v>46008.35416666666</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D67" s="2">
-        <v>46008.73819444444</v>
+        <v>46008.75209490741</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G67" s="2">
-        <v>19.25</v>
+        <v>24.8</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -3246,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3254,22 +3260,22 @@
         <v>63</v>
       </c>
       <c r="B68" s="2">
-        <v>46008.32707175926</v>
+        <v>46008.32776620371</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D68" s="2">
-        <v>46008.75263888889</v>
+        <v>46008.73819444444</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G68" s="2">
-        <v>20.95</v>
+        <v>19.25</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3278,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3286,22 +3292,22 @@
         <v>64</v>
       </c>
       <c r="B69" s="2">
-        <v>46008.31787037037</v>
+        <v>46008.33200231481</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D69" s="2">
-        <v>46008.71130787037</v>
+        <v>46008.71427083333</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G69" s="2">
-        <v>23.85</v>
+        <v>20.2</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3310,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3318,22 +3324,22 @@
         <v>65</v>
       </c>
       <c r="B70" s="2">
-        <v>46008.31648148148</v>
+        <v>46008.32122685185</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D70" s="2">
-        <v>46008.75439814815</v>
+        <v>46008.32125</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G70" s="2">
-        <v>24.45</v>
+        <v>23.35</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3342,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3350,22 +3356,22 @@
         <v>66</v>
       </c>
       <c r="B71" s="2">
-        <v>46008.32122685185</v>
+        <v>46008.32806712963</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D71" s="2">
-        <v>46008.32125</v>
+        <v>46008.74947916667</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G71" s="2">
-        <v>23.35</v>
+        <v>22.4</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -3374,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3382,22 +3388,22 @@
         <v>67</v>
       </c>
       <c r="B72" s="2">
-        <v>46008.33200231481</v>
+        <v>46008.33157407407</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D72" s="2">
-        <v>46008.71427083333</v>
+        <v>46008.71809027778</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G72" s="2">
-        <v>20.2</v>
+        <v>22.4</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -3406,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3414,22 +3420,22 @@
         <v>68</v>
       </c>
       <c r="B73" s="2">
-        <v>46008.32806712963</v>
+        <v>46008.31648148148</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D73" s="2">
-        <v>46008.74947916667</v>
+        <v>46008.75439814815</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G73" s="2">
-        <v>22.4</v>
+        <v>24.45</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -3438,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3449,16 +3455,16 @@
         <v>46008.32858796296</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D74" s="2">
         <v>46008.72153935185</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G74" s="2">
         <v>20.7</v>
@@ -3470,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3478,22 +3484,22 @@
         <v>70</v>
       </c>
       <c r="B75" s="2">
-        <v>46008.32228009259</v>
+        <v>46008.32178240741</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D75" s="2">
-        <v>46008.74369212963</v>
+        <v>46008.63890046296</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G75" s="2">
-        <v>23.35</v>
+        <v>20.95</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
@@ -3502,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3510,19 +3516,19 @@
         <v>71</v>
       </c>
       <c r="B76" s="2">
-        <v>46008.32178240741</v>
+        <v>46008.32707175926</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D76" s="2">
-        <v>46008.63890046296</v>
+        <v>46008.75263888889</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G76" s="2">
         <v>20.95</v>
@@ -3534,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3542,22 +3548,22 @@
         <v>72</v>
       </c>
       <c r="B77" s="2">
-        <v>46008.31638888889</v>
+        <v>46008.32228009259</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D77" s="2">
-        <v>46008.71950231482</v>
+        <v>46008.74369212963</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G77" s="2">
-        <v>19.6</v>
+        <v>23.35</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
@@ -3566,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3574,22 +3580,22 @@
         <v>73</v>
       </c>
       <c r="B78" s="2">
-        <v>46008.33157407407</v>
+        <v>46008.3278125</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D78" s="2">
-        <v>46008.71809027778</v>
+        <v>46008.75625</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G78" s="2">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -3598,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3606,22 +3612,22 @@
         <v>74</v>
       </c>
       <c r="B79" s="2">
-        <v>46008.3278125</v>
+        <v>46008.31787037037</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D79" s="2">
-        <v>46008.75625</v>
+        <v>46008.71130787037</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G79" s="2">
-        <v>23</v>
+        <v>23.85</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
@@ -3630,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3638,22 +3644,22 @@
         <v>75</v>
       </c>
       <c r="B80" s="2">
-        <v>46008.32195601852</v>
+        <v>46008.31638888889</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D80" s="2">
-        <v>46008.73618055556</v>
+        <v>46008.71950231482</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G80" s="2">
-        <v>23</v>
+        <v>19.6</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -3662,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3670,22 +3676,22 @@
         <v>76</v>
       </c>
       <c r="B81" s="2">
-        <v>46008.33006944445</v>
+        <v>46008.32195601852</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D81" s="2">
-        <v>46008.75033564815</v>
+        <v>46008.73618055556</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G81" s="2">
-        <v>20.95</v>
+        <v>23</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -3694,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3702,22 +3708,22 @@
         <v>77</v>
       </c>
       <c r="B82" s="2">
-        <v>46008.35416666666</v>
+        <v>46008.33006944445</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D82" s="2">
-        <v>46008.75209490741</v>
+        <v>46008.75033564815</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G82" s="2">
-        <v>24.8</v>
+        <v>20.95</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
@@ -3726,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3734,19 +3740,19 @@
         <v>78</v>
       </c>
       <c r="B83" s="2">
-        <v>46008.41998842593</v>
+        <v>46008.32273148148</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D83" s="2">
-        <v>46008.69869212963</v>
+        <v>46008.70833333334</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G83" s="2">
         <v>22.4</v>
@@ -3758,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3766,22 +3772,22 @@
         <v>79</v>
       </c>
       <c r="B84" s="2">
-        <v>46008.32165509259</v>
+        <v>46008.32090277778</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D84" s="2">
-        <v>46008.52068287037</v>
+        <v>46008.66881944444</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G84" s="2">
-        <v>19.25</v>
+        <v>19.75</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3790,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3798,23 +3804,21 @@
         <v>80</v>
       </c>
       <c r="B85" s="2">
-        <v>46008.62109953703</v>
+        <v>46008.61111111111</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D85" s="2">
-        <v>46008.68658564815</v>
+        <v>46008.68888888889</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G85" s="2">
-        <v>22.75</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G85" s="2"/>
       <c r="H85" s="2">
         <v>0</v>
       </c>
@@ -3822,30 +3826,30 @@
         <v>0</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B86" s="2">
-        <v>46008.31987268518</v>
+        <v>46008.32243055556</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D86" s="2">
-        <v>46008.57938657407</v>
+        <v>46008.62440972222</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G86" s="2">
-        <v>22.75</v>
+        <v>19.25</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -3854,30 +3858,30 @@
         <v>0</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="2">
-        <v>46008.32243055556</v>
+        <v>46008.31601851852</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D87" s="2">
-        <v>46008.62440972222</v>
+        <v>46008.67222222222</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G87" s="2">
-        <v>19.25</v>
+        <v>19.6</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -3886,30 +3890,30 @@
         <v>0</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B88" s="2">
-        <v>46008.32020833333</v>
+        <v>46008.3241550926</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D88" s="2">
-        <v>46008.61266203703</v>
+        <v>46008.69350694444</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G88" s="2">
-        <v>19.25</v>
+        <v>19.6</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
@@ -3918,30 +3922,30 @@
         <v>0</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B89" s="2">
-        <v>46008.32103009259</v>
+        <v>46008.32349537037</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D89" s="2">
-        <v>46008.49600694444</v>
+        <v>46008.67393518519</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G89" s="2">
-        <v>19.35</v>
+        <v>19.6</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -3950,30 +3954,30 @@
         <v>0</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B90" s="2">
-        <v>46008.32349537037</v>
+        <v>46008.32103009259</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D90" s="2">
-        <v>46008.67393518519</v>
+        <v>46008.49600694444</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G90" s="2">
-        <v>19.6</v>
+        <v>19.35</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
@@ -3982,26 +3986,30 @@
         <v>0</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B91" s="2">
-        <v>46008.32273148148</v>
+        <v>46008.32165509259</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="D91" s="2">
+        <v>46008.52068287037</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="F91" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G91" s="2">
-        <v>22.4</v>
+        <v>19.25</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -4010,30 +4018,30 @@
         <v>0</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2">
-        <v>46008.32041666667</v>
+        <v>46008.32020833333</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D92" s="2">
-        <v>46008.49927083333</v>
+        <v>46008.61266203703</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G92" s="2">
-        <v>22.4</v>
+        <v>19.25</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -4042,30 +4050,30 @@
         <v>0</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B93" s="2">
-        <v>46008.4034837963</v>
+        <v>46008.41998842593</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D93" s="2">
-        <v>46008.67138888889</v>
+        <v>46008.69869212963</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G93" s="2">
-        <v>17.65</v>
+        <v>22.4</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
@@ -4074,30 +4082,30 @@
         <v>0</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2">
-        <v>46008.32090277778</v>
+        <v>46008.32041666667</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D94" s="2">
-        <v>46008.66881944444</v>
+        <v>46008.49927083333</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G94" s="2">
-        <v>19.75</v>
+        <v>22.4</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
@@ -4106,30 +4114,30 @@
         <v>0</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2">
-        <v>46008.3241550926</v>
+        <v>46008.62109953703</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D95" s="2">
-        <v>46008.69350694444</v>
+        <v>46008.68658564815</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G95" s="2">
-        <v>19.6</v>
+        <v>22.75</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -4138,30 +4146,30 @@
         <v>0</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B96" s="2">
-        <v>46008.31601851852</v>
+        <v>46008.4034837963</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D96" s="2">
-        <v>46008.67222222222</v>
+        <v>46008.67138888889</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G96" s="2">
-        <v>19.6</v>
+        <v>17.65</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -4170,30 +4178,30 @@
         <v>0</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="2">
-        <v>46008.33380787037</v>
+        <v>46008.31987268518</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D97" s="2">
-        <v>46008.68732638889</v>
+        <v>46008.57938657407</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G97" s="2">
-        <v>22.4</v>
+        <v>22.75</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
@@ -4202,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4213,16 +4221,16 @@
         <v>46008.32261574074</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D98" s="2">
         <v>46008.69291666667</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G98" s="2">
         <v>25.7</v>
@@ -4234,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4242,22 +4250,22 @@
         <v>93</v>
       </c>
       <c r="B99" s="2">
-        <v>46008.32594907407</v>
+        <v>46008.32351851852</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D99" s="2">
-        <v>46008.65208333333</v>
+        <v>46008.69104166667</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G99" s="2">
-        <v>23.35</v>
+        <v>23</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
@@ -4266,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4274,22 +4282,22 @@
         <v>94</v>
       </c>
       <c r="B100" s="2">
-        <v>46008.32351851852</v>
+        <v>46008.32594907407</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D100" s="2">
-        <v>46008.69104166667</v>
+        <v>46008.65208333333</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G100" s="2">
-        <v>23</v>
+        <v>23.35</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
@@ -4298,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4306,22 +4314,22 @@
         <v>95</v>
       </c>
       <c r="B101" s="2">
-        <v>46008.71534722222</v>
+        <v>46008.33380787037</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D101" s="2">
-        <v>46008.7244212963</v>
+        <v>46008.68732638889</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G101" s="2">
-        <v>18.6</v>
+        <v>22.4</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
@@ -4330,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4338,22 +4346,22 @@
         <v>96</v>
       </c>
       <c r="B102" s="2">
-        <v>46008.32204861111</v>
+        <v>46008.60657407407</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D102" s="2">
-        <v>46008.75659722222</v>
+        <v>46008.72299768519</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G102" s="2">
-        <v>18.7</v>
+        <v>18.35</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -4362,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4370,22 +4378,22 @@
         <v>97</v>
       </c>
       <c r="B103" s="2">
-        <v>46008.32700231481</v>
+        <v>46008.3163425926</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D103" s="2">
-        <v>46008.75539351852</v>
+        <v>46008.46460648148</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G103" s="2">
-        <v>22.4</v>
+        <v>18.35</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
@@ -4394,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4402,22 +4410,22 @@
         <v>98</v>
       </c>
       <c r="B104" s="2">
-        <v>46008.32693287037</v>
+        <v>46008.32166666666</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D104" s="2">
-        <v>46008.75811342592</v>
+        <v>46008.53768518518</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G104" s="2">
-        <v>19.25</v>
+        <v>18.35</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
@@ -4426,27 +4434,27 @@
         <v>0</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2">
-        <v>46008.58664351852</v>
+        <v>46008.56383101852</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D105" s="2">
-        <v>46008.72578703704</v>
+        <v>46008.72267361111</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G105" s="2">
         <v>18.35</v>
@@ -4458,30 +4466,30 @@
         <v>0</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2">
-        <v>46008.62387731481</v>
+        <v>46008.32508101852</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D106" s="2">
-        <v>46008.72387731481</v>
+        <v>46008.72265046297</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G106" s="2">
-        <v>18.35</v>
+        <v>19.75</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -4490,27 +4498,27 @@
         <v>0</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2">
         <v>46008.32131944445</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D107" s="2">
         <v>46008.52903935185</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G107" s="2">
         <v>18.6</v>
@@ -4522,30 +4530,30 @@
         <v>0</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2">
-        <v>46008.31614583333</v>
+        <v>46008.71534722222</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D108" s="2">
-        <v>46008.5660300926</v>
+        <v>46008.7244212963</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G108" s="2">
-        <v>18.35</v>
+        <v>18.6</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -4554,27 +4562,27 @@
         <v>0</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2">
         <v>46008.32050925926</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D109" s="2">
         <v>46008.58869212963</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G109" s="2">
         <v>18.35</v>
@@ -4586,27 +4594,27 @@
         <v>0</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2">
-        <v>46008.53298611111</v>
+        <v>46008.53646990741</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D110" s="2">
-        <v>46008.72300925926</v>
+        <v>46008.72309027778</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G110" s="2">
         <v>18.35</v>
@@ -4618,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4626,22 +4634,22 @@
         <v>102</v>
       </c>
       <c r="B111" s="2">
-        <v>46008.3163425926</v>
+        <v>46008.32700231481</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D111" s="2">
-        <v>46008.46460648148</v>
+        <v>46008.75539351852</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G111" s="2">
-        <v>18.35</v>
+        <v>22.4</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -4650,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4658,22 +4666,22 @@
         <v>103</v>
       </c>
       <c r="B112" s="2">
-        <v>46008.32508101852</v>
+        <v>46008.31614583333</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D112" s="2">
-        <v>46008.72265046297</v>
+        <v>46008.5660300926</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G112" s="2">
-        <v>19.75</v>
+        <v>18.35</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
@@ -4682,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4690,19 +4698,19 @@
         <v>104</v>
       </c>
       <c r="B113" s="2">
-        <v>46008.56383101852</v>
+        <v>46008.32394675926</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D113" s="2">
-        <v>46008.72267361111</v>
+        <v>46008.6040625</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G113" s="2">
         <v>18.35</v>
@@ -4714,30 +4722,30 @@
         <v>0</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2">
-        <v>46008.32166666666</v>
+        <v>46008.67943287037</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D114" s="2">
-        <v>46008.53768518518</v>
+        <v>46008.75774305555</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G114" s="2">
-        <v>18.35</v>
+        <v>18.6</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -4746,30 +4754,30 @@
         <v>0</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B115" s="2">
-        <v>46008.32394675926</v>
+        <v>46008.32693287037</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D115" s="2">
-        <v>46008.6040625</v>
+        <v>46008.75811342592</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G115" s="2">
-        <v>18.35</v>
+        <v>19.25</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
@@ -4778,30 +4786,30 @@
         <v>0</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="2">
-        <v>46008.32136574074</v>
+        <v>46008.32204861111</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D116" s="2">
-        <v>46008.52903935185</v>
+        <v>46008.75659722222</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G116" s="2">
-        <v>18.35</v>
+        <v>18.7</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
@@ -4810,30 +4818,30 @@
         <v>0</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B117" s="2">
-        <v>46008.32291666666</v>
+        <v>46008.32136574074</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D117" s="2">
-        <v>46008.72313657407</v>
+        <v>46008.52903935185</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G117" s="2">
-        <v>18.7</v>
+        <v>18.35</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
@@ -4842,27 +4850,27 @@
         <v>0</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2">
-        <v>46008.60657407407</v>
+        <v>46008.58664351852</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D118" s="2">
-        <v>46008.72299768519</v>
+        <v>46008.72578703704</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G118" s="2">
         <v>18.35</v>
@@ -4874,30 +4882,30 @@
         <v>0</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B119" s="2">
-        <v>46008.67943287037</v>
+        <v>46008.53298611111</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D119" s="2">
-        <v>46008.75774305555</v>
+        <v>46008.72300925926</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G119" s="2">
-        <v>18.6</v>
+        <v>18.35</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -4906,30 +4914,30 @@
         <v>0</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B120" s="2">
-        <v>46008.53646990741</v>
+        <v>46008.32291666666</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D120" s="2">
-        <v>46008.72309027778</v>
+        <v>46008.72313657407</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G120" s="2">
-        <v>18.35</v>
+        <v>18.7</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
@@ -4938,30 +4946,30 @@
         <v>0</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B121" s="2">
-        <v>46008.33344907407</v>
+        <v>46008.62387731481</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D121" s="2">
-        <v>46008.68002314815</v>
+        <v>46008.72387731481</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G121" s="2">
-        <v>19.75</v>
+        <v>18.35</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
@@ -4970,30 +4978,30 @@
         <v>0</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2">
-        <v>46008.33045138889</v>
+        <v>46008.33344907407</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D122" s="2">
-        <v>46008.67932870371</v>
+        <v>46008.68002314815</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G122" s="2">
-        <v>18.6</v>
+        <v>19.75</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
@@ -5002,30 +5010,30 @@
         <v>0</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B123" s="2">
-        <v>46008.3244212963</v>
+        <v>46008.33045138889</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D123" s="2">
-        <v>46008.75369212963</v>
+        <v>46008.67932870371</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G123" s="2">
-        <v>18.35</v>
+        <v>18.6</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -5034,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -5042,22 +5050,22 @@
         <v>110</v>
       </c>
       <c r="B124" s="2">
-        <v>46008.33390046296</v>
+        <v>46008.3244212963</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D124" s="2">
-        <v>46008.53298611111</v>
+        <v>46008.75369212963</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G124" s="2">
-        <v>23</v>
+        <v>18.35</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -5066,27 +5074,27 @@
         <v>0</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2">
         <v>46008.55153935185</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D125" s="2">
         <v>46008.7553125</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G125" s="2">
         <v>23</v>
@@ -5098,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -5106,22 +5114,22 @@
         <v>111</v>
       </c>
       <c r="B126" s="2">
-        <v>46008.70833333334</v>
+        <v>46008.33390046296</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D126" s="2">
-        <v>46008.75884259259</v>
+        <v>46008.53298611111</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G126" s="2">
-        <v>18.35</v>
+        <v>23</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
@@ -5130,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5138,19 +5146,19 @@
         <v>112</v>
       </c>
       <c r="B127" s="2">
-        <v>46008.71449074074</v>
+        <v>46008.70833333334</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D127" s="2">
-        <v>46008.75619212963</v>
+        <v>46008.75884259259</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G127" s="2">
         <v>18.35</v>
@@ -5162,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -5173,16 +5181,16 @@
         <v>46008.33290509259</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D128" s="2">
         <v>46008.75527777777</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G128" s="2">
         <v>18.6</v>
@@ -5194,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5202,19 +5210,19 @@
         <v>114</v>
       </c>
       <c r="B129" s="2">
-        <v>46008.37541666667</v>
+        <v>46008.71449074074</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D129" s="2">
-        <v>46008.77966435185</v>
+        <v>46008.75619212963</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G129" s="2">
         <v>18.35</v>
@@ -5226,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5234,22 +5242,22 @@
         <v>115</v>
       </c>
       <c r="B130" s="2">
-        <v>46008.26869212963</v>
+        <v>46008.37541666667</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D130" s="2">
-        <v>46008.5490625</v>
+        <v>46008.77966435185</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G130" s="2">
-        <v>22.4</v>
+        <v>18.35</v>
       </c>
       <c r="H130" s="2">
         <v>0</v>
@@ -5258,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5266,31 +5274,31 @@
         <v>116</v>
       </c>
       <c r="B131" s="2">
-        <v>46008.35864583333</v>
+        <v>46008.33333333334</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D131" s="2">
-        <v>46008.70237268518</v>
+        <v>46008.33333333334</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G131" s="2">
         <v>18.35</v>
       </c>
       <c r="H131" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I131" s="2">
         <v>0</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5298,19 +5306,19 @@
         <v>117</v>
       </c>
       <c r="B132" s="2">
-        <v>46008.33428240741</v>
+        <v>46008.36841435185</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D132" s="2">
-        <v>46008.70704861111</v>
+        <v>46008.75363425926</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G132" s="2">
         <v>18.35</v>
@@ -5322,62 +5330,62 @@
         <v>0</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B133" s="2">
-        <v>46008</v>
+        <v>46008.330625</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D133" s="2">
-        <v>46008</v>
+        <v>46008.58432870371</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G133" s="2">
-        <v>18.35</v>
+        <v>18.7</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
       </c>
       <c r="I133" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B134" s="2">
-        <v>46008.38309027778</v>
+        <v>46008.375</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D134" s="2">
-        <v>46008.67697916667</v>
+        <v>46008.68541666667</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G134" s="2">
-        <v>18.35</v>
+        <v>17.4</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -5386,27 +5394,27 @@
         <v>0</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2">
-        <v>46008.34931712963</v>
+        <v>46008.37400462963</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D135" s="2">
-        <v>46008.70387731482</v>
+        <v>46008.68203703704</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G135" s="2">
         <v>18.35</v>
@@ -5418,30 +5426,30 @@
         <v>0</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B136" s="2">
-        <v>46008.3317824074</v>
+        <v>46008.37298611111</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D136" s="2">
-        <v>46008.70861111111</v>
+        <v>46008.67597222222</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G136" s="2">
-        <v>22.4</v>
+        <v>18.6</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -5450,30 +5458,30 @@
         <v>0</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2">
-        <v>46008.37298611111</v>
+        <v>46008.35864583333</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D137" s="2">
-        <v>46008.67597222222</v>
+        <v>46008.70237268518</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G137" s="2">
-        <v>18.6</v>
+        <v>18.35</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -5482,30 +5490,30 @@
         <v>0</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B138" s="2">
-        <v>46008.330625</v>
+        <v>46008.38309027778</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D138" s="2">
-        <v>46008.58432870371</v>
+        <v>46008.67697916667</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G138" s="2">
-        <v>18.7</v>
+        <v>18.35</v>
       </c>
       <c r="H138" s="2">
         <v>0</v>
@@ -5514,30 +5522,30 @@
         <v>0</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2">
-        <v>46008.375</v>
+        <v>46008.34931712963</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D139" s="2">
-        <v>46008.68541666667</v>
+        <v>46008.70387731482</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G139" s="2">
-        <v>17.4</v>
+        <v>18.35</v>
       </c>
       <c r="H139" s="2">
         <v>0</v>
@@ -5546,27 +5554,27 @@
         <v>0</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2">
-        <v>46008.45318287037</v>
+        <v>46008.33428240741</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D140" s="2">
-        <v>46008.69195601852</v>
+        <v>46008.70704861111</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G140" s="2">
         <v>18.35</v>
@@ -5578,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5586,31 +5594,31 @@
         <v>125</v>
       </c>
       <c r="B141" s="2">
-        <v>46008.33333333334</v>
+        <v>46008</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D141" s="2">
-        <v>46008.33333333334</v>
+        <v>46008</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G141" s="2">
         <v>18.35</v>
       </c>
       <c r="H141" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I141" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5618,19 +5626,19 @@
         <v>126</v>
       </c>
       <c r="B142" s="2">
-        <v>46008.37400462963</v>
+        <v>46008.45318287037</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D142" s="2">
-        <v>46008.68203703704</v>
+        <v>46008.69195601852</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G142" s="2">
         <v>18.35</v>
@@ -5642,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5650,22 +5658,22 @@
         <v>127</v>
       </c>
       <c r="B143" s="2">
-        <v>46008.36841435185</v>
+        <v>46008.26869212963</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D143" s="2">
-        <v>46008.75363425926</v>
+        <v>46008.5490625</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G143" s="2">
-        <v>18.35</v>
+        <v>22.4</v>
       </c>
       <c r="H143" s="2">
         <v>0</v>
@@ -5674,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5682,22 +5690,22 @@
         <v>128</v>
       </c>
       <c r="B144" s="2">
-        <v>46008.30707175926</v>
+        <v>46008.3317824074</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D144" s="2">
-        <v>46008.6840162037</v>
+        <v>46008.70861111111</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G144" s="2">
-        <v>18.35</v>
+        <v>22.4</v>
       </c>
       <c r="H144" s="2">
         <v>0</v>
@@ -5706,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -5714,22 +5722,22 @@
         <v>129</v>
       </c>
       <c r="B145" s="2">
-        <v>46008.2924537037</v>
+        <v>46008.45677083333</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D145" s="2">
-        <v>46008.75108796296</v>
+        <v>46008.73013888889</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G145" s="2">
-        <v>21.8</v>
+        <v>18.35</v>
       </c>
       <c r="H145" s="2">
         <v>0</v>
@@ -5738,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -5746,19 +5754,19 @@
         <v>130</v>
       </c>
       <c r="B146" s="2">
-        <v>46008.3041087963</v>
+        <v>46008.30898148148</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D146" s="2">
-        <v>46008.62412037037</v>
+        <v>46008.46837962963</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G146" s="2">
         <v>18.35</v>
@@ -5770,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -5778,31 +5786,31 @@
         <v>131</v>
       </c>
       <c r="B147" s="2">
-        <v>46008.45787037037</v>
+        <v>46008.33333333334</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D147" s="2">
-        <v>46008.68711805555</v>
+        <v>46008.33333333334</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G147" s="2">
         <v>18.35</v>
       </c>
       <c r="H147" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I147" s="2">
         <v>0</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -5810,54 +5818,54 @@
         <v>132</v>
       </c>
       <c r="B148" s="2">
-        <v>46008.33333333334</v>
+        <v>46008.37238425926</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D148" s="2">
-        <v>46008.33333333334</v>
+        <v>46008.65017361111</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G148" s="2">
-        <v>18.6</v>
+        <v>18.35</v>
       </c>
       <c r="H148" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I148" s="2">
         <v>0</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B149" s="2">
-        <v>46008.30685185185</v>
+        <v>46008.53782407408</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D149" s="2">
-        <v>46008.68783564815</v>
+        <v>46008.6237962963</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G149" s="2">
-        <v>19.65</v>
+        <v>18.35</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -5866,27 +5874,27 @@
         <v>0</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2">
-        <v>46008.37238425926</v>
+        <v>46008.34783564815</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D150" s="2">
-        <v>46008.65017361111</v>
+        <v>46008.40863425926</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G150" s="2">
         <v>18.35</v>
@@ -5898,27 +5906,27 @@
         <v>0</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B151" s="2">
-        <v>46008.41196759259</v>
+        <v>46008.37054398148</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D151" s="2">
-        <v>46008.75497685185</v>
+        <v>46008.65266203704</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G151" s="2">
         <v>18.35</v>
@@ -5930,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -5938,19 +5946,19 @@
         <v>135</v>
       </c>
       <c r="B152" s="2">
-        <v>46008.34783564815</v>
+        <v>46008.45280092592</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D152" s="2">
-        <v>46008.40863425926</v>
+        <v>46008.69300925926</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G152" s="2">
         <v>18.35</v>
@@ -5962,7 +5970,7 @@
         <v>0</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -5970,51 +5978,51 @@
         <v>136</v>
       </c>
       <c r="B153" s="2">
-        <v>46008.33333333334</v>
+        <v>46008.2924537037</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D153" s="2">
-        <v>46008.33333333334</v>
+        <v>46008.75108796296</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G153" s="2">
-        <v>18.35</v>
+        <v>21.8</v>
       </c>
       <c r="H153" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I153" s="2">
         <v>0</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2">
-        <v>46008.45677083333</v>
+        <v>46008.41196759259</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D154" s="2">
-        <v>46008.73013888889</v>
+        <v>46008.75497685185</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G154" s="2">
         <v>18.35</v>
@@ -6026,59 +6034,59 @@
         <v>0</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B155" s="2">
-        <v>46008.31267361111</v>
+        <v>46008.33333333334</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D155" s="2">
-        <v>46008.6346875</v>
+        <v>46008.33333333334</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G155" s="2">
-        <v>18.35</v>
+        <v>18.6</v>
       </c>
       <c r="H155" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I155" s="2">
         <v>0</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B156" s="2">
-        <v>46008.45525462963</v>
+        <v>46008.45787037037</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D156" s="2">
-        <v>46008.69054398148</v>
+        <v>46008.68711805555</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G156" s="2">
         <v>18.35</v>
@@ -6090,27 +6098,27 @@
         <v>0</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B157" s="2">
-        <v>46008.53782407408</v>
+        <v>46008.3041087963</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D157" s="2">
-        <v>46008.6237962963</v>
+        <v>46008.62412037037</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G157" s="2">
         <v>18.35</v>
@@ -6122,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -6130,22 +6138,22 @@
         <v>140</v>
       </c>
       <c r="B158" s="2">
-        <v>46008.30898148148</v>
+        <v>46008.30685185185</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D158" s="2">
-        <v>46008.46837962963</v>
+        <v>46008.68783564815</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G158" s="2">
-        <v>18.35</v>
+        <v>19.65</v>
       </c>
       <c r="H158" s="2">
         <v>0</v>
@@ -6154,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -6162,19 +6170,19 @@
         <v>141</v>
       </c>
       <c r="B159" s="2">
-        <v>46008.37054398148</v>
+        <v>46008.45525462963</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D159" s="2">
-        <v>46008.65266203704</v>
+        <v>46008.69054398148</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G159" s="2">
         <v>18.35</v>
@@ -6186,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -6194,19 +6202,19 @@
         <v>142</v>
       </c>
       <c r="B160" s="2">
-        <v>46008.45280092592</v>
+        <v>46008.30707175926</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D160" s="2">
-        <v>46008.69300925926</v>
+        <v>46008.6840162037</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G160" s="2">
         <v>18.35</v>
@@ -6218,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -6226,19 +6234,19 @@
         <v>143</v>
       </c>
       <c r="B161" s="2">
-        <v>46008.45158564814</v>
+        <v>46008.31267361111</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D161" s="2">
-        <v>46008.69189814815</v>
+        <v>46008.6346875</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G161" s="2">
         <v>18.35</v>
@@ -6250,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -6258,22 +6266,22 @@
         <v>144</v>
       </c>
       <c r="B162" s="2">
-        <v>46008.57627314814</v>
+        <v>46008.45158564814</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D162" s="2">
-        <v>46008.89563657407</v>
+        <v>46008.69189814815</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G162" s="2">
-        <v>19.25</v>
+        <v>18.35</v>
       </c>
       <c r="H162" s="2">
         <v>0</v>
@@ -6282,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -6290,19 +6298,19 @@
         <v>145</v>
       </c>
       <c r="B163" s="2">
-        <v>46008.56996527778</v>
+        <v>46008.57627314814</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D163" s="2">
-        <v>46008.91245370371</v>
+        <v>46008.89563657407</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G163" s="2">
         <v>19.25</v>
@@ -6314,27 +6322,27 @@
         <v>0</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B164" s="2">
         <v>46008</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D164" s="2">
         <v>46008</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G164" s="2">
         <v>19.25</v>
@@ -6346,7 +6354,7 @@
         <v>21</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -6354,22 +6362,22 @@
         <v>146</v>
       </c>
       <c r="B165" s="2">
-        <v>46008.36943287037</v>
+        <v>46008.56996527778</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D165" s="2">
-        <v>46008.68327546296</v>
+        <v>46008.91245370371</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G165" s="2">
-        <v>18.7</v>
+        <v>19.25</v>
       </c>
       <c r="H165" s="2">
         <v>0</v>
@@ -6378,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -6386,22 +6394,22 @@
         <v>147</v>
       </c>
       <c r="B166" s="2">
-        <v>46008.35621527778</v>
+        <v>46008.36943287037</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D166" s="2">
-        <v>46008.68711805555</v>
+        <v>46008.68327546296</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G166" s="2">
-        <v>25.7</v>
+        <v>18.7</v>
       </c>
       <c r="H166" s="2">
         <v>0</v>
@@ -6410,7 +6418,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -6418,22 +6426,22 @@
         <v>148</v>
       </c>
       <c r="B167" s="2">
-        <v>46008.27208333334</v>
+        <v>46008.35621527778</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D167" s="2">
-        <v>46008.59503472222</v>
+        <v>46008.68711805555</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G167" s="2">
-        <v>17.85</v>
+        <v>25.7</v>
       </c>
       <c r="H167" s="2">
         <v>0</v>
@@ -6442,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -6450,18 +6458,22 @@
         <v>149</v>
       </c>
       <c r="B168" s="2">
-        <v>46008.93788194445</v>
+        <v>46008.62002314815</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="D168" s="2">
+        <v>46008.91891203704</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="F168" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G168" s="2">
-        <v>20.7</v>
+        <v>18.35</v>
       </c>
       <c r="H168" s="2">
         <v>0</v>
@@ -6470,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -6478,22 +6490,22 @@
         <v>150</v>
       </c>
       <c r="B169" s="2">
-        <v>46008.62002314815</v>
+        <v>46008.27208333334</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D169" s="2">
-        <v>46008.91891203704</v>
+        <v>46008.59503472222</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G169" s="2">
-        <v>18.35</v>
+        <v>17.85</v>
       </c>
       <c r="H169" s="2">
         <v>0</v>
@@ -6502,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -6510,22 +6522,18 @@
         <v>151</v>
       </c>
       <c r="B170" s="2">
-        <v>46008.38293981482</v>
+        <v>46008.93788194445</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D170" s="2">
-        <v>46008.85240740741</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
       <c r="F170" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G170" s="2">
-        <v>23</v>
+        <v>20.7</v>
       </c>
       <c r="H170" s="2">
         <v>0</v>
@@ -6534,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -6542,22 +6550,22 @@
         <v>152</v>
       </c>
       <c r="B171" s="2">
-        <v>46008.40925925926</v>
+        <v>46008.37502314815</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D171" s="2">
-        <v>46008.66957175926</v>
+        <v>46008.66898148148</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G171" s="2">
-        <v>20.2</v>
+        <v>19.65</v>
       </c>
       <c r="H171" s="2">
         <v>0</v>
@@ -6566,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -6574,22 +6582,22 @@
         <v>153</v>
       </c>
       <c r="B172" s="2">
-        <v>46008.37502314815</v>
+        <v>46008.40925925926</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D172" s="2">
-        <v>46008.66898148148</v>
+        <v>46008.66957175926</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G172" s="2">
-        <v>19.65</v>
+        <v>20.2</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
@@ -6598,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -6606,22 +6614,22 @@
         <v>154</v>
       </c>
       <c r="B173" s="2">
-        <v>46008.33858796296</v>
+        <v>46008.38293981482</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D173" s="2">
-        <v>46008.47296296297</v>
+        <v>46008.85240740741</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G173" s="2">
-        <v>19.25</v>
+        <v>23</v>
       </c>
       <c r="H173" s="2">
         <v>0</v>
@@ -6630,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -6638,19 +6646,19 @@
         <v>155</v>
       </c>
       <c r="B174" s="2">
-        <v>46008.32636574074</v>
+        <v>46008.33918981482</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D174" s="2">
-        <v>46008.71285879629</v>
+        <v>46008.50122685185</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G174" s="2">
         <v>19.75</v>
@@ -6662,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -6673,16 +6681,16 @@
         <v>46008.31644675926</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D175" s="2">
         <v>46008.48304398148</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G175" s="2">
         <v>19.25</v>
@@ -6694,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6702,22 +6710,22 @@
         <v>157</v>
       </c>
       <c r="B176" s="2">
-        <v>46008.33918981482</v>
+        <v>46008.33858796296</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D176" s="2">
-        <v>46008.50122685185</v>
+        <v>46008.47296296297</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G176" s="2">
-        <v>19.75</v>
+        <v>19.25</v>
       </c>
       <c r="H176" s="2">
         <v>0</v>
@@ -6726,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -6734,22 +6742,22 @@
         <v>158</v>
       </c>
       <c r="B177" s="2">
-        <v>46008.31043981481</v>
+        <v>46008.32636574074</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D177" s="2">
-        <v>46008.47129629629</v>
+        <v>46008.71285879629</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G177" s="2">
-        <v>19.25</v>
+        <v>19.75</v>
       </c>
       <c r="H177" s="2">
         <v>0</v>
@@ -6758,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -6769,16 +6777,16 @@
         <v>46008.32416666667</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D178" s="2">
         <v>46008.62644675926</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G178" s="2">
         <v>19.25</v>
@@ -6790,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6798,22 +6806,22 @@
         <v>160</v>
       </c>
       <c r="B179" s="2">
-        <v>46008.30429398148</v>
+        <v>46008.31043981481</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D179" s="2">
-        <v>46008.78543981481</v>
+        <v>46008.47129629629</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G179" s="2">
-        <v>22.4</v>
+        <v>19.25</v>
       </c>
       <c r="H179" s="2">
         <v>0</v>
@@ -6822,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6830,22 +6838,22 @@
         <v>161</v>
       </c>
       <c r="B180" s="2">
-        <v>46008.68947916666</v>
+        <v>46008.30429398148</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D180" s="2">
-        <v>46008.94432870371</v>
+        <v>46008.78543981481</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G180" s="2">
-        <v>19.65</v>
+        <v>22.4</v>
       </c>
       <c r="H180" s="2">
         <v>0</v>
@@ -6854,30 +6862,30 @@
         <v>0</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B181" s="2">
-        <v>46008.3325462963</v>
+        <v>46008.6847337963</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D181" s="2">
-        <v>46008.55449074074</v>
+        <v>46008.94347222222</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G181" s="2">
-        <v>21.2</v>
+        <v>19.65</v>
       </c>
       <c r="H181" s="2">
         <v>0</v>
@@ -6886,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6894,18 +6902,22 @@
         <v>162</v>
       </c>
       <c r="B182" s="2">
-        <v>46008.57696759259</v>
+        <v>46008.68947916666</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="D182" s="2">
+        <v>46008.94432870371</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="F182" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G182" s="2">
-        <v>21.2</v>
+        <v>19.65</v>
       </c>
       <c r="H182" s="2">
         <v>0</v>
@@ -6914,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6922,19 +6934,19 @@
         <v>163</v>
       </c>
       <c r="B183" s="2">
-        <v>46008.37226851852</v>
+        <v>46008.61809027778</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D183" s="2">
-        <v>46008.59844907407</v>
+        <v>46008.68962962963</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G183" s="2">
         <v>20.7</v>
@@ -6946,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -6954,19 +6966,19 @@
         <v>163</v>
       </c>
       <c r="B184" s="2">
-        <v>46008.61809027778</v>
+        <v>46008.37226851852</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D184" s="2">
-        <v>46008.68962962963</v>
+        <v>46008.59844907407</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G184" s="2">
         <v>20.7</v>
@@ -6978,30 +6990,30 @@
         <v>0</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B185" s="2">
-        <v>46008.6847337963</v>
+        <v>46008.57696759259</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D185" s="2">
-        <v>46008.94347222222</v>
+        <v>46009.32939814815</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G185" s="2">
-        <v>19.65</v>
+        <v>21.2</v>
       </c>
       <c r="H185" s="2">
         <v>0</v>
@@ -7010,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -7018,22 +7030,22 @@
         <v>164</v>
       </c>
       <c r="B186" s="2">
-        <v>46008.31932870371</v>
+        <v>46008.3325462963</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D186" s="2">
-        <v>46008.69688657407</v>
+        <v>46008.55449074074</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G186" s="2">
-        <v>26.5</v>
+        <v>21.2</v>
       </c>
       <c r="H186" s="2">
         <v>0</v>
@@ -7042,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -7053,16 +7065,16 @@
         <v>46008.45568287037</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D187" s="2">
         <v>46008.83043981482</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G187" s="2">
         <v>26.45</v>
@@ -7074,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -7085,16 +7097,16 @@
         <v>46008.31364583333</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D188" s="2">
         <v>46008.60549768519</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G188" s="2">
         <v>22.75</v>
@@ -7106,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -7114,22 +7126,22 @@
         <v>167</v>
       </c>
       <c r="B189" s="2">
-        <v>46008.31380787037</v>
+        <v>46008.31932870371</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D189" s="2">
-        <v>46008.57020833333</v>
+        <v>46008.69688657407</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G189" s="2">
-        <v>30.78</v>
+        <v>26.5</v>
       </c>
       <c r="H189" s="2">
         <v>0</v>
@@ -7138,30 +7150,30 @@
         <v>0</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="2" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="B190" s="2">
-        <v>46008.28983796296</v>
+        <v>46008.31380787037</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D190" s="2">
-        <v>46008.51706018519</v>
+        <v>46008.57020833333</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G190" s="2">
-        <v>40.5</v>
+        <v>30.78</v>
       </c>
       <c r="H190" s="2">
         <v>0</v>
@@ -7170,30 +7182,30 @@
         <v>0</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B191" s="2">
-        <v>46008.33887731482</v>
+        <v>46008.32768518518</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D191" s="2">
-        <v>46008.72604166667</v>
+        <v>46008.71399305556</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G191" s="2">
-        <v>31.64</v>
+        <v>30.78</v>
       </c>
       <c r="H191" s="2">
         <v>0</v>
@@ -7202,30 +7214,30 @@
         <v>0</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B192" s="2">
-        <v>46008.32768518518</v>
+        <v>46008.33887731482</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D192" s="2">
-        <v>46008.71399305556</v>
+        <v>46008.72604166667</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G192" s="2">
-        <v>30.78</v>
+        <v>31.64</v>
       </c>
       <c r="H192" s="2">
         <v>0</v>
@@ -7234,30 +7246,30 @@
         <v>0</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="2" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="B193" s="2">
-        <v>46008.38196759259</v>
+        <v>46008.28983796296</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D193" s="2">
-        <v>46008.71839120371</v>
+        <v>46008.51706018519</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G193" s="2">
-        <v>23</v>
+        <v>40.5</v>
       </c>
       <c r="H193" s="2">
         <v>0</v>
@@ -7266,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7277,16 +7289,16 @@
         <v>46008.35969907408</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D194" s="2">
         <v>46008.70510416666</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G194" s="2">
         <v>23</v>
@@ -7298,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7306,22 +7318,22 @@
         <v>172</v>
       </c>
       <c r="B195" s="2">
-        <v>46008.34535879629</v>
+        <v>46008.38196759259</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D195" s="2">
-        <v>46008.48449074074</v>
+        <v>46008.71839120371</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G195" s="2">
-        <v>26.75</v>
+        <v>23</v>
       </c>
       <c r="H195" s="2">
         <v>0</v>
@@ -7330,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7338,22 +7350,22 @@
         <v>173</v>
       </c>
       <c r="B196" s="2">
-        <v>46008.30726851852</v>
+        <v>46008.34535879629</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D196" s="2">
-        <v>46008.70521990741</v>
+        <v>46008.48449074074</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G196" s="2">
-        <v>21.4</v>
+        <v>26.75</v>
       </c>
       <c r="H196" s="2">
         <v>0</v>
@@ -7362,7 +7374,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7370,31 +7382,63 @@
         <v>174</v>
       </c>
       <c r="B197" s="2">
+        <v>46008.30726851852</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D197" s="2">
+        <v>46008.70521990741</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G197" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="H197" s="2">
+        <v>0</v>
+      </c>
+      <c r="I197" s="2">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
+      <c r="A198" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B198" s="2">
         <v>46008.33710648148</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D197" s="2">
+      <c r="C198" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D198" s="2">
         <v>46008.67365740741</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G197" s="2">
+      <c r="E198" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G198" s="2">
         <v>20.2</v>
       </c>
-      <c r="H197" s="2">
-        <v>0</v>
-      </c>
-      <c r="I197" s="2">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="s">
-        <v>178</v>
+      <c r="H198" s="2">
+        <v>0</v>
+      </c>
+      <c r="I198" s="2">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
